--- a/Luban/LubanConfig/Datas/#WaveData.xlsx
+++ b/Luban/LubanConfig/Datas/#WaveData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Learn\tower-defense-tengine-demo\Configs\GameConfig\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Project\TowerDefenseDemo\TowerDefense-TEngine-Demo\Luban\LubanConfig\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97A5E3CF-7CDE-42E4-8F51-5FC8A142BEC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CF2AF0B-A973-4AF5-BA46-A4A1553888A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="3315" windowWidth="21390" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -282,10 +282,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -568,19 +568,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5:F54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="8.4140625" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" customWidth="1"/>
-    <col min="4" max="4" width="13.08203125" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="8.375" customWidth="1"/>
+    <col min="3" max="3" width="13.625" customWidth="1"/>
+    <col min="4" max="4" width="13.125" customWidth="1"/>
+    <col min="5" max="5" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>50</v>
       </c>
@@ -593,12 +593,12 @@
       <c r="D1" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>53</v>
       </c>
@@ -611,12 +611,12 @@
       <c r="D2" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>56</v>
       </c>
@@ -626,12 +626,12 @@
       <c r="D3" t="s">
         <v>57</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>58</v>
       </c>
@@ -644,12 +644,12 @@
       <c r="D4" t="s">
         <v>59</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>1001</v>
       </c>
@@ -666,7 +666,7 @@
         <v>10016</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>1002</v>
       </c>
@@ -683,7 +683,7 @@
         <v>10030</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>1003</v>
       </c>
@@ -700,7 +700,7 @@
         <v>10041</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>1004</v>
       </c>
@@ -717,7 +717,7 @@
         <v>10053</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>1005</v>
       </c>
@@ -728,13 +728,13 @@
         <v>10</v>
       </c>
       <c r="E9">
-        <v>10042</v>
+        <v>10054</v>
       </c>
       <c r="F9">
         <v>10068</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>1006</v>
       </c>
@@ -745,13 +745,13 @@
         <v>10</v>
       </c>
       <c r="E10">
-        <v>10042</v>
+        <v>10069</v>
       </c>
       <c r="F10">
         <v>10088</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>1007</v>
       </c>
@@ -762,13 +762,13 @@
         <v>10</v>
       </c>
       <c r="E11">
-        <v>10042</v>
+        <v>10089</v>
       </c>
       <c r="F11">
         <v>10108</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B12">
         <v>1008</v>
       </c>
@@ -779,13 +779,13 @@
         <v>10</v>
       </c>
       <c r="E12">
-        <v>10042</v>
+        <v>10109</v>
       </c>
       <c r="F12">
         <v>10148</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B13">
         <v>1009</v>
       </c>
@@ -796,13 +796,13 @@
         <v>10</v>
       </c>
       <c r="E13">
-        <v>10042</v>
+        <v>10149</v>
       </c>
       <c r="F13">
         <v>10173</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B14">
         <v>1010</v>
       </c>
@@ -813,13 +813,13 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>10042</v>
+        <v>10174</v>
       </c>
       <c r="F14">
         <v>10174</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B15">
         <v>1011</v>
       </c>
@@ -830,13 +830,13 @@
         <v>10</v>
       </c>
       <c r="E15">
-        <v>10042</v>
+        <v>10175</v>
       </c>
       <c r="F15">
         <v>10186</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B16">
         <v>1012</v>
       </c>
@@ -847,13 +847,13 @@
         <v>10</v>
       </c>
       <c r="E16">
-        <v>10042</v>
+        <v>10187</v>
       </c>
       <c r="F16">
         <v>10198</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17">
         <v>1013</v>
       </c>
@@ -864,13 +864,13 @@
         <v>10</v>
       </c>
       <c r="E17">
-        <v>10042</v>
+        <v>10199</v>
       </c>
       <c r="F17">
         <v>10206</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18">
         <v>1014</v>
       </c>
@@ -881,13 +881,13 @@
         <v>10</v>
       </c>
       <c r="E18">
-        <v>10042</v>
+        <v>10207</v>
       </c>
       <c r="F18">
         <v>10214</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19">
         <v>1015</v>
       </c>
@@ -898,13 +898,13 @@
         <v>10</v>
       </c>
       <c r="E19">
-        <v>10042</v>
+        <v>10215</v>
       </c>
       <c r="F19">
         <v>10226</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20">
         <v>1016</v>
       </c>
@@ -915,13 +915,13 @@
         <v>10</v>
       </c>
       <c r="E20">
-        <v>10042</v>
+        <v>10227</v>
       </c>
       <c r="F20">
         <v>10242</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21">
         <v>1017</v>
       </c>
@@ -932,13 +932,13 @@
         <v>10</v>
       </c>
       <c r="E21">
-        <v>10042</v>
+        <v>10243</v>
       </c>
       <c r="F21">
         <v>10258</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22">
         <v>1018</v>
       </c>
@@ -949,13 +949,13 @@
         <v>10</v>
       </c>
       <c r="E22">
-        <v>10042</v>
+        <v>10259</v>
       </c>
       <c r="F22">
         <v>10290</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B23">
         <v>1019</v>
       </c>
@@ -966,13 +966,13 @@
         <v>10</v>
       </c>
       <c r="E23">
-        <v>10042</v>
+        <v>10291</v>
       </c>
       <c r="F23">
         <v>10310</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B24">
         <v>1020</v>
       </c>
@@ -983,13 +983,13 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>10042</v>
+        <v>10311</v>
       </c>
       <c r="F24">
         <v>10315</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B25">
         <v>1021</v>
       </c>
@@ -1000,13 +1000,13 @@
         <v>10</v>
       </c>
       <c r="E25">
-        <v>10042</v>
+        <v>10316</v>
       </c>
       <c r="F25">
         <v>10327</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B26">
         <v>1022</v>
       </c>
@@ -1017,13 +1017,13 @@
         <v>10</v>
       </c>
       <c r="E26">
-        <v>10042</v>
+        <v>10328</v>
       </c>
       <c r="F26">
         <v>10342</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B27">
         <v>1023</v>
       </c>
@@ -1034,13 +1034,13 @@
         <v>10</v>
       </c>
       <c r="E27">
-        <v>10042</v>
+        <v>10343</v>
       </c>
       <c r="F27">
         <v>10356</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B28">
         <v>1024</v>
       </c>
@@ -1051,13 +1051,13 @@
         <v>10</v>
       </c>
       <c r="E28">
-        <v>10042</v>
+        <v>10357</v>
       </c>
       <c r="F28">
         <v>10367</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B29">
         <v>1025</v>
       </c>
@@ -1068,13 +1068,13 @@
         <v>10</v>
       </c>
       <c r="E29">
-        <v>10042</v>
+        <v>10368</v>
       </c>
       <c r="F29">
         <v>10386</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B30">
         <v>1026</v>
       </c>
@@ -1085,13 +1085,13 @@
         <v>10</v>
       </c>
       <c r="E30">
-        <v>10042</v>
+        <v>10387</v>
       </c>
       <c r="F30">
         <v>10422</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B31">
         <v>1027</v>
       </c>
@@ -1102,13 +1102,13 @@
         <v>10</v>
       </c>
       <c r="E31">
-        <v>10042</v>
+        <v>10423</v>
       </c>
       <c r="F31">
         <v>10446</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B32">
         <v>1028</v>
       </c>
@@ -1119,13 +1119,13 @@
         <v>10</v>
       </c>
       <c r="E32">
-        <v>10042</v>
+        <v>10447</v>
       </c>
       <c r="F32">
         <v>10494</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B33">
         <v>1029</v>
       </c>
@@ -1136,13 +1136,13 @@
         <v>10</v>
       </c>
       <c r="E33">
-        <v>10042</v>
+        <v>10495</v>
       </c>
       <c r="F33">
         <v>10514</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B34">
         <v>1030</v>
       </c>
@@ -1153,13 +1153,13 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>10042</v>
+        <v>10515</v>
       </c>
       <c r="F34">
         <v>10524</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B35">
         <v>1031</v>
       </c>
@@ -1170,13 +1170,13 @@
         <v>10</v>
       </c>
       <c r="E35">
-        <v>10042</v>
+        <v>10525</v>
       </c>
       <c r="F35">
         <v>10535</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B36">
         <v>1032</v>
       </c>
@@ -1187,13 +1187,13 @@
         <v>10</v>
       </c>
       <c r="E36">
-        <v>10042</v>
+        <v>10536</v>
       </c>
       <c r="F36">
         <v>10550</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B37">
         <v>1033</v>
       </c>
@@ -1204,13 +1204,13 @@
         <v>10</v>
       </c>
       <c r="E37">
-        <v>10042</v>
+        <v>10551</v>
       </c>
       <c r="F37">
         <v>10560</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B38">
         <v>1034</v>
       </c>
@@ -1221,13 +1221,13 @@
         <v>10</v>
       </c>
       <c r="E38">
-        <v>10042</v>
+        <v>10561</v>
       </c>
       <c r="F38">
         <v>10569</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B39">
         <v>1035</v>
       </c>
@@ -1238,13 +1238,13 @@
         <v>10</v>
       </c>
       <c r="E39">
-        <v>10042</v>
+        <v>10570</v>
       </c>
       <c r="F39">
         <v>10585</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B40">
         <v>1036</v>
       </c>
@@ -1255,13 +1255,13 @@
         <v>10</v>
       </c>
       <c r="E40">
-        <v>10042</v>
+        <v>10586</v>
       </c>
       <c r="F40">
-        <v>10645</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
+        <v>10615</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B41">
         <v>1037</v>
       </c>
@@ -1272,13 +1272,13 @@
         <v>10</v>
       </c>
       <c r="E41">
-        <v>10042</v>
+        <v>10616</v>
       </c>
       <c r="F41">
         <v>10637</v>
       </c>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B42">
         <v>1038</v>
       </c>
@@ -1289,13 +1289,13 @@
         <v>10</v>
       </c>
       <c r="E42">
-        <v>10042</v>
+        <v>10638</v>
       </c>
       <c r="F42">
         <v>10678</v>
       </c>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B43">
         <v>1039</v>
       </c>
@@ -1306,13 +1306,13 @@
         <v>10</v>
       </c>
       <c r="E43">
-        <v>10042</v>
+        <v>10679</v>
       </c>
       <c r="F43">
         <v>10693</v>
       </c>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B44">
         <v>1040</v>
       </c>
@@ -1323,13 +1323,13 @@
         <v>0</v>
       </c>
       <c r="E44">
-        <v>10042</v>
+        <v>10694</v>
       </c>
       <c r="F44">
         <v>10705</v>
       </c>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B45">
         <v>1041</v>
       </c>
@@ -1340,13 +1340,13 @@
         <v>10</v>
       </c>
       <c r="E45">
-        <v>10042</v>
+        <v>10706</v>
       </c>
       <c r="F45">
         <v>10725</v>
       </c>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B46">
         <v>1042</v>
       </c>
@@ -1357,13 +1357,13 @@
         <v>10</v>
       </c>
       <c r="E46">
-        <v>10042</v>
+        <v>10726</v>
       </c>
       <c r="F46">
         <v>10749</v>
       </c>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B47">
         <v>1043</v>
       </c>
@@ -1374,13 +1374,13 @@
         <v>10</v>
       </c>
       <c r="E47">
-        <v>10042</v>
+        <v>10750</v>
       </c>
       <c r="F47">
         <v>10780</v>
       </c>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B48">
         <v>1044</v>
       </c>
@@ -1391,13 +1391,13 @@
         <v>10</v>
       </c>
       <c r="E48">
-        <v>10042</v>
+        <v>10781</v>
       </c>
       <c r="F48">
         <v>10793</v>
       </c>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B49">
         <v>1045</v>
       </c>
@@ -1408,13 +1408,13 @@
         <v>10</v>
       </c>
       <c r="E49">
-        <v>10042</v>
+        <v>10794</v>
       </c>
       <c r="F49">
         <v>10805</v>
       </c>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B50">
         <v>1046</v>
       </c>
@@ -1425,13 +1425,13 @@
         <v>10</v>
       </c>
       <c r="E50">
-        <v>10042</v>
+        <v>10806</v>
       </c>
       <c r="F50">
         <v>10821</v>
       </c>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B51">
         <v>1047</v>
       </c>
@@ -1442,13 +1442,13 @@
         <v>10</v>
       </c>
       <c r="E51">
-        <v>10042</v>
+        <v>10822</v>
       </c>
       <c r="F51">
         <v>10848</v>
       </c>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B52">
         <v>1048</v>
       </c>
@@ -1458,14 +1458,14 @@
       <c r="D52">
         <v>10</v>
       </c>
-      <c r="E52" s="2">
-        <v>10042</v>
+      <c r="E52" s="1">
+        <v>10849</v>
       </c>
       <c r="F52">
         <v>10849</v>
       </c>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B53">
         <v>1049</v>
       </c>
@@ -1476,13 +1476,13 @@
         <v>10</v>
       </c>
       <c r="E53">
-        <v>10042</v>
+        <v>10850</v>
       </c>
       <c r="F53">
         <v>10869</v>
       </c>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B54">
         <v>1050</v>
       </c>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="E54">
-        <v>10042</v>
+        <v>10870</v>
       </c>
       <c r="F54">
         <v>10905</v>
